--- a/www/IndicatorsPerCountry/Russia_GDPperCapita_TerritorialRef_1991_2012_CCode_643.xlsx
+++ b/www/IndicatorsPerCountry/Russia_GDPperCapita_TerritorialRef_1991_2012_CCode_643.xlsx
@@ -132,13 +132,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Russia_GDPperCapita_TerritorialRef_1991_2012_CCode_643.xlsx
+++ b/www/IndicatorsPerCountry/Russia_GDPperCapita_TerritorialRef_1991_2012_CCode_643.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="76">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,73 +36,175 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>6582</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>7778.71638745</t>
-  </si>
-  <si>
-    <t>7373.52993059</t>
-  </si>
-  <si>
-    <t>6298.1960592</t>
-  </si>
-  <si>
-    <t>5748.53118661</t>
-  </si>
-  <si>
-    <t>5013.97431161</t>
-  </si>
-  <si>
-    <t>4803.99926942</t>
-  </si>
-  <si>
-    <t>4635.70544973</t>
-  </si>
-  <si>
-    <t>4706.8040639</t>
-  </si>
-  <si>
-    <t>4461.81021448</t>
-  </si>
-  <si>
-    <t>4759.83053106</t>
-  </si>
-  <si>
-    <t>5260.95947002</t>
-  </si>
-  <si>
-    <t>5555.99664604</t>
-  </si>
-  <si>
-    <t>5851.72698508</t>
-  </si>
-  <si>
-    <t>6313.03901921</t>
-  </si>
-  <si>
-    <t>6800.69962413</t>
-  </si>
-  <si>
-    <t>7268.67592825</t>
-  </si>
-  <si>
-    <t>7893.47436678</t>
-  </si>
-  <si>
-    <t>8584.89992482</t>
-  </si>
-  <si>
-    <t>9038.48552404</t>
-  </si>
-  <si>
-    <t>8328.21267932</t>
-  </si>
-  <si>
-    <t>8660.21974919</t>
+    <t>5557</t>
+  </si>
+  <si>
+    <t>5874</t>
+  </si>
+  <si>
+    <t>6229</t>
+  </si>
+  <si>
+    <t>6405</t>
+  </si>
+  <si>
+    <t>6754</t>
+  </si>
+  <si>
+    <t>7068</t>
+  </si>
+  <si>
+    <t>7517</t>
+  </si>
+  <si>
+    <t>7943</t>
+  </si>
+  <si>
+    <t>8391</t>
+  </si>
+  <si>
+    <t>8563</t>
+  </si>
+  <si>
+    <t>9234</t>
+  </si>
+  <si>
+    <t>9567</t>
+  </si>
+  <si>
+    <t>9785</t>
+  </si>
+  <si>
+    <t>10492</t>
+  </si>
+  <si>
+    <t>10801</t>
+  </si>
+  <si>
+    <t>11164</t>
+  </si>
+  <si>
+    <t>11426</t>
+  </si>
+  <si>
+    <t>11692</t>
+  </si>
+  <si>
+    <t>11829</t>
+  </si>
+  <si>
+    <t>11867</t>
+  </si>
+  <si>
+    <t>12204</t>
+  </si>
+  <si>
+    <t>12274</t>
+  </si>
+  <si>
+    <t>12267</t>
+  </si>
+  <si>
+    <t>12420</t>
+  </si>
+  <si>
+    <t>12379</t>
+  </si>
+  <si>
+    <t>12475</t>
+  </si>
+  <si>
+    <t>12694</t>
+  </si>
+  <si>
+    <t>12597</t>
+  </si>
+  <si>
+    <t>12720</t>
+  </si>
+  <si>
+    <t>12766</t>
+  </si>
+  <si>
+    <t>12400</t>
+  </si>
+  <si>
+    <t>12012.2355209118</t>
+  </si>
+  <si>
+    <t>10487.5477012209</t>
+  </si>
+  <si>
+    <t>9789.06675878048</t>
+  </si>
+  <si>
+    <t>8743.74686730526</t>
+  </si>
+  <si>
+    <t>8586.32356281519</t>
+  </si>
+  <si>
+    <t>8479.38077559598</t>
+  </si>
+  <si>
+    <t>8813.3500583513</t>
+  </si>
+  <si>
+    <t>8557.4951509082</t>
+  </si>
+  <si>
+    <t>9340.0293750332</t>
+  </si>
+  <si>
+    <t>10552.8846095804</t>
+  </si>
+  <si>
+    <t>11391.1945034735</t>
+  </si>
+  <si>
+    <t>12259.4769155872</t>
+  </si>
+  <si>
+    <t>13521.2389447687</t>
+  </si>
+  <si>
+    <t>14880.9787045091</t>
+  </si>
+  <si>
+    <t>16243.1004941064</t>
+  </si>
+  <si>
+    <t>18008.3360751598</t>
+  </si>
+  <si>
+    <t>20018.122985683</t>
+  </si>
+  <si>
+    <t>21563.4619154372</t>
+  </si>
+  <si>
+    <t>20335.5577008682</t>
+  </si>
+  <si>
+    <t>21737.3839189731</t>
+  </si>
+  <si>
+    <t>23130</t>
+  </si>
+  <si>
+    <t>23931</t>
+  </si>
+  <si>
+    <t>24224</t>
+  </si>
+  <si>
+    <t>24387</t>
+  </si>
+  <si>
+    <t>23691</t>
+  </si>
+  <si>
+    <t>23635</t>
   </si>
   <si>
     <t>Description</t>
@@ -217,7 +319,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1973.0</v>
+        <v>1960.0</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -234,7 +336,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1974.0</v>
+        <v>1961.0</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -251,10 +353,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1975.0</v>
+        <v>1962.0</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -268,10 +370,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1976.0</v>
+        <v>1963.0</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -285,10 +387,10 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1977.0</v>
+        <v>1964.0</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -302,10 +404,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1978.0</v>
+        <v>1965.0</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -319,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1979.0</v>
+        <v>1966.0</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -336,10 +438,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>1980.0</v>
+        <v>1967.0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -353,10 +455,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>1981.0</v>
+        <v>1968.0</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -370,10 +472,10 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>1982.0</v>
+        <v>1969.0</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -387,10 +489,10 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>1983.0</v>
+        <v>1970.0</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -404,10 +506,10 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>1984.0</v>
+        <v>1971.0</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -421,10 +523,10 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>1985.0</v>
+        <v>1972.0</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -438,10 +540,10 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1986.0</v>
+        <v>1973.0</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -455,10 +557,10 @@
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>1987.0</v>
+        <v>1974.0</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -472,10 +574,10 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1988.0</v>
+        <v>1975.0</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -489,10 +591,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>1989.0</v>
+        <v>1976.0</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -506,10 +608,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1990.0</v>
+        <v>1977.0</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -523,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1991.0</v>
+        <v>1978.0</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
@@ -540,10 +642,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1992.0</v>
+        <v>1979.0</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -557,10 +659,10 @@
         <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>1993.0</v>
+        <v>1980.0</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
@@ -574,10 +676,10 @@
         <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>1994.0</v>
+        <v>1981.0</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
@@ -591,10 +693,10 @@
         <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>1995.0</v>
+        <v>1982.0</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -608,10 +710,10 @@
         <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>1996.0</v>
+        <v>1983.0</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -625,10 +727,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>1997.0</v>
+        <v>1984.0</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -642,10 +744,10 @@
         <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>1998.0</v>
+        <v>1985.0</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -659,10 +761,10 @@
         <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>1999.0</v>
+        <v>1986.0</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -676,10 +778,10 @@
         <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>2000.0</v>
+        <v>1987.0</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -693,10 +795,10 @@
         <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>2001.0</v>
+        <v>1988.0</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
@@ -710,10 +812,10 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>2002.0</v>
+        <v>1989.0</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
@@ -727,10 +829,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>2003.0</v>
+        <v>1990.0</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
@@ -744,10 +846,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>2004.0</v>
+        <v>1991.0</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
@@ -761,10 +863,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>2005.0</v>
+        <v>1992.0</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
@@ -778,10 +880,10 @@
         <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>2006.0</v>
+        <v>1993.0</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
@@ -795,10 +897,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>2007.0</v>
+        <v>1994.0</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
@@ -812,10 +914,10 @@
         <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>2008.0</v>
+        <v>1995.0</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38">
@@ -829,10 +931,10 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>2009.0</v>
+        <v>1996.0</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39">
@@ -846,10 +948,333 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>643.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>643.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>643.0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>643.0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>643.0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>643.0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>643.0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>643.0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>643.0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>643.0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>643.0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>643.0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>643.0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="n">
         <v>2010.0</v>
       </c>
-      <c r="E39" t="s">
-        <v>29</v>
+      <c r="E52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>643.0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>643.0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>643.0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>643.0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>643.0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>643.0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -867,50 +1292,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
